--- a/src/site/sf110_semantic_v2.xlsx
+++ b/src/site/sf110_semantic_v2.xlsx
@@ -2435,9 +2435,6 @@
     <t>                           0 = false</t>
   </si>
   <si>
-    <t>p    = differentPackage;            // True: Ignora os packages | False: Mesmos packages</t>
-  </si>
-  <si>
     <t>c    = ignoreClass;                     // True: Ignora as Classes | False: Considera com Expansão Wordnet</t>
   </si>
   <si>
@@ -2445,6 +2442,9 @@
   </si>
   <si>
     <t>w   = ignoreMethodName;     // True: Ignora os nomes dos Métodos | False: Considera com Expansão Wordnet</t>
+  </si>
+  <si>
+    <t>p    = differentPackage;            // True: Pacotes diferentes | False: Mesmos packages</t>
   </si>
 </sst>
 </file>
@@ -3570,6 +3570,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3621,7 +3622,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3998,7 +3998,7 @@
   <dimension ref="A2:B284"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4027,7 +4027,7 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="140" t="s">
+      <c r="A6" s="123" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="140" t="s">
+      <c r="A56" s="123" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="140" t="s">
+      <c r="A68" s="123" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4367,7 +4367,7 @@
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="140" t="s">
+      <c r="A80" s="123" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="140" t="s">
+      <c r="A92" s="123" t="s">
         <v>220</v>
       </c>
       <c r="B92" s="98"/>
@@ -4468,7 +4468,7 @@
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="140" t="s">
+      <c r="A104" s="123" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="140" t="s">
+      <c r="A148" s="123" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4733,7 +4733,7 @@
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="140" t="s">
+      <c r="A161" s="123" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4783,7 +4783,7 @@
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="140" t="s">
+      <c r="A173" s="123" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5003,7 +5003,7 @@
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="140" t="s">
+      <c r="A219" s="123" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5043,7 +5043,7 @@
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="140" t="s">
+      <c r="A229" s="123" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5263,7 +5263,7 @@
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="140" t="s">
+      <c r="A275" s="123" t="s">
         <v>254</v>
       </c>
     </row>
@@ -5360,46 +5360,46 @@
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B2" s="90"/>
       <c r="C2" s="91"/>
-      <c r="D2" s="130" t="s">
+      <c r="D2" s="131" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="133" t="s">
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="134" t="s">
         <v>133</v>
       </c>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="136"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="89"/>
       <c r="C3" s="88"/>
-      <c r="D3" s="138" t="s">
+      <c r="D3" s="139" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="139" t="s">
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="140" t="s">
         <v>132</v>
       </c>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="136" t="s">
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="137" t="s">
         <v>131</v>
       </c>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="137" t="s">
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="138" t="s">
         <v>132</v>
       </c>
-      <c r="N3" s="137"/>
-      <c r="O3" s="137"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B4" s="92" t="s">
@@ -11515,8 +11515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A182"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:A39"/>
+    <sheetView showGridLines="0" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12357,9 +12357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="A220" sqref="A220:A253"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15057,7 +15055,7 @@
   <dimension ref="B1:M59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -15448,7 +15446,7 @@
         <v>21.648995094</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="10"/>
@@ -15465,7 +15463,7 @@
         <v>78.351004904999996</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="10"/>
@@ -15482,7 +15480,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -15498,7 +15496,7 @@
         <v>100</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="10"/>
@@ -15948,7 +15946,7 @@
       </c>
     </row>
     <row r="3" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="126" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -15965,7 +15963,7 @@
       <c r="L3" s="101"/>
     </row>
     <row r="4" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="123"/>
+      <c r="B4" s="124"/>
       <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
@@ -15979,7 +15977,7 @@
       <c r="G4" s="39"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="123"/>
+      <c r="B5" s="124"/>
       <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
@@ -15993,7 +15991,7 @@
       <c r="G5" s="39"/>
     </row>
     <row r="6" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="123"/>
+      <c r="B6" s="124"/>
       <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
@@ -16008,7 +16006,7 @@
       <c r="L6" s="101"/>
     </row>
     <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="123"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
@@ -16022,7 +16020,7 @@
       <c r="G7" s="39"/>
     </row>
     <row r="8" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="123"/>
+      <c r="B8" s="124"/>
       <c r="C8" s="6" t="s">
         <v>3</v>
       </c>
@@ -16037,7 +16035,7 @@
       <c r="L8" s="101"/>
     </row>
     <row r="9" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="123"/>
+      <c r="B9" s="124"/>
       <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
@@ -16052,7 +16050,7 @@
       <c r="L9" s="101"/>
     </row>
     <row r="10" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="123"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
@@ -16066,7 +16064,7 @@
       <c r="G10" s="39"/>
     </row>
     <row r="11" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="126"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="23" t="s">
         <v>94</v>
       </c>
@@ -16081,7 +16079,7 @@
       <c r="N11" s="101"/>
     </row>
     <row r="12" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="124" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="22" t="s">
@@ -16097,7 +16095,7 @@
       <c r="G12" s="66"/>
     </row>
     <row r="13" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="123"/>
+      <c r="B13" s="124"/>
       <c r="C13" s="6" t="s">
         <v>31</v>
       </c>
@@ -16111,7 +16109,7 @@
       <c r="G13" s="39"/>
     </row>
     <row r="14" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="123"/>
+      <c r="B14" s="124"/>
       <c r="C14" s="6" t="s">
         <v>32</v>
       </c>
@@ -16125,7 +16123,7 @@
       <c r="G14" s="39"/>
     </row>
     <row r="15" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="123"/>
+      <c r="B15" s="124"/>
       <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
@@ -16139,7 +16137,7 @@
       <c r="G15" s="39"/>
     </row>
     <row r="16" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="123"/>
+      <c r="B16" s="124"/>
       <c r="C16" s="6" t="s">
         <v>34</v>
       </c>
@@ -16153,7 +16151,7 @@
       <c r="G16" s="39"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="123"/>
+      <c r="B17" s="124"/>
       <c r="C17" s="6" t="s">
         <v>35</v>
       </c>
@@ -16167,7 +16165,7 @@
       <c r="G17" s="39"/>
     </row>
     <row r="18" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="123"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="6" t="s">
         <v>36</v>
       </c>
@@ -16181,7 +16179,7 @@
       <c r="G18" s="39"/>
     </row>
     <row r="19" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="126"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="23" t="s">
         <v>94</v>
       </c>
@@ -16217,7 +16215,7 @@
       <c r="N20" s="101"/>
     </row>
     <row r="21" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="127" t="s">
+      <c r="B21" s="128" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="25" t="s">
@@ -16233,7 +16231,7 @@
       <c r="G21" s="70"/>
     </row>
     <row r="22" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="123"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="6" t="s">
         <v>41</v>
       </c>
@@ -16247,7 +16245,7 @@
       <c r="G22" s="39"/>
     </row>
     <row r="23" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="123"/>
+      <c r="B23" s="124"/>
       <c r="C23" s="6" t="s">
         <v>42</v>
       </c>
@@ -16261,7 +16259,7 @@
       <c r="G23" s="39"/>
     </row>
     <row r="24" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="123"/>
+      <c r="B24" s="124"/>
       <c r="C24" s="6" t="s">
         <v>43</v>
       </c>
@@ -16275,7 +16273,7 @@
       <c r="G24" s="39"/>
     </row>
     <row r="25" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="123"/>
+      <c r="B25" s="124"/>
       <c r="C25" s="6" t="s">
         <v>44</v>
       </c>
@@ -16289,7 +16287,7 @@
       <c r="G25" s="39"/>
     </row>
     <row r="26" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="123"/>
+      <c r="B26" s="124"/>
       <c r="C26" s="6" t="s">
         <v>45</v>
       </c>
@@ -16303,7 +16301,7 @@
       <c r="G26" s="39"/>
     </row>
     <row r="27" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="123"/>
+      <c r="B27" s="124"/>
       <c r="C27" s="6" t="s">
         <v>46</v>
       </c>
@@ -16317,7 +16315,7 @@
       <c r="G27" s="39"/>
     </row>
     <row r="28" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="123"/>
+      <c r="B28" s="124"/>
       <c r="C28" s="6" t="s">
         <v>47</v>
       </c>
@@ -16331,7 +16329,7 @@
       <c r="G28" s="39"/>
     </row>
     <row r="29" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="123"/>
+      <c r="B29" s="124"/>
       <c r="C29" s="6" t="s">
         <v>48</v>
       </c>
@@ -16345,7 +16343,7 @@
       <c r="G29" s="39"/>
     </row>
     <row r="30" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="123"/>
+      <c r="B30" s="124"/>
       <c r="C30" s="6" t="s">
         <v>49</v>
       </c>
@@ -16359,7 +16357,7 @@
       <c r="G30" s="39"/>
     </row>
     <row r="31" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="123"/>
+      <c r="B31" s="124"/>
       <c r="C31" s="6" t="s">
         <v>50</v>
       </c>
@@ -16373,7 +16371,7 @@
       <c r="G31" s="39"/>
     </row>
     <row r="32" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="123"/>
+      <c r="B32" s="124"/>
       <c r="C32" s="6" t="s">
         <v>51</v>
       </c>
@@ -16387,12 +16385,12 @@
       <c r="G32" s="39"/>
     </row>
     <row r="33" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="126"/>
+      <c r="B33" s="127"/>
       <c r="C33" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="128"/>
-      <c r="E33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="130"/>
       <c r="F33" s="52">
         <v>3528</v>
       </c>
@@ -16402,7 +16400,7 @@
       <c r="L33" s="101"/>
     </row>
     <row r="34" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="123" t="s">
+      <c r="B34" s="124" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="22" t="s">
@@ -16419,7 +16417,7 @@
       <c r="L34" s="101"/>
     </row>
     <row r="35" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="123"/>
+      <c r="B35" s="124"/>
       <c r="C35" s="6" t="s">
         <v>52</v>
       </c>
@@ -16434,7 +16432,7 @@
       <c r="L35" s="101"/>
     </row>
     <row r="36" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="124"/>
+      <c r="B36" s="125"/>
       <c r="C36" s="6" t="s">
         <v>57</v>
       </c>
@@ -16482,7 +16480,7 @@
       <c r="N38" s="101"/>
     </row>
     <row r="39" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="123" t="s">
+      <c r="B39" s="124" t="s">
         <v>60</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -16498,7 +16496,7 @@
       <c r="G39" s="66"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="123"/>
+      <c r="B40" s="124"/>
       <c r="C40" s="28" t="s">
         <v>542</v>
       </c>
@@ -16513,7 +16511,7 @@
       <c r="L40" s="101"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="124"/>
+      <c r="B41" s="125"/>
       <c r="C41" s="29" t="s">
         <v>543</v>
       </c>
@@ -16616,7 +16614,7 @@
       </c>
     </row>
     <row r="50" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="125" t="s">
+      <c r="B50" s="126" t="s">
         <v>22</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -16633,7 +16631,7 @@
       <c r="L50" s="101"/>
     </row>
     <row r="51" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="123"/>
+      <c r="B51" s="124"/>
       <c r="C51" s="6" t="s">
         <v>23</v>
       </c>
@@ -16647,7 +16645,7 @@
       <c r="G51" s="39"/>
     </row>
     <row r="52" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="123"/>
+      <c r="B52" s="124"/>
       <c r="C52" s="6" t="s">
         <v>24</v>
       </c>
@@ -16662,7 +16660,7 @@
       <c r="L52" s="101"/>
     </row>
     <row r="53" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="123"/>
+      <c r="B53" s="124"/>
       <c r="C53" s="6" t="s">
         <v>25</v>
       </c>
@@ -16677,7 +16675,7 @@
       <c r="L53" s="101"/>
     </row>
     <row r="54" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="123"/>
+      <c r="B54" s="124"/>
       <c r="C54" s="6" t="s">
         <v>26</v>
       </c>
@@ -16692,7 +16690,7 @@
       <c r="L54" s="101"/>
     </row>
     <row r="55" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="123"/>
+      <c r="B55" s="124"/>
       <c r="C55" s="6" t="s">
         <v>3</v>
       </c>
@@ -16707,7 +16705,7 @@
       <c r="L55" s="101"/>
     </row>
     <row r="56" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="123"/>
+      <c r="B56" s="124"/>
       <c r="C56" s="6" t="s">
         <v>27</v>
       </c>
@@ -16722,7 +16720,7 @@
       <c r="L56" s="101"/>
     </row>
     <row r="57" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="123"/>
+      <c r="B57" s="124"/>
       <c r="C57" s="6" t="s">
         <v>28</v>
       </c>
@@ -16736,7 +16734,7 @@
       <c r="G57" s="39"/>
     </row>
     <row r="58" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="126"/>
+      <c r="B58" s="127"/>
       <c r="C58" s="23" t="s">
         <v>94</v>
       </c>
@@ -16751,7 +16749,7 @@
       <c r="N58" s="101"/>
     </row>
     <row r="59" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="127" t="s">
+      <c r="B59" s="128" t="s">
         <v>29</v>
       </c>
       <c r="C59" s="25" t="s">
@@ -16767,7 +16765,7 @@
       <c r="G59" s="70"/>
     </row>
     <row r="60" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="123"/>
+      <c r="B60" s="124"/>
       <c r="C60" s="6" t="s">
         <v>31</v>
       </c>
@@ -16781,7 +16779,7 @@
       <c r="G60" s="39"/>
     </row>
     <row r="61" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="123"/>
+      <c r="B61" s="124"/>
       <c r="C61" s="6" t="s">
         <v>32</v>
       </c>
@@ -16795,7 +16793,7 @@
       <c r="G61" s="39"/>
     </row>
     <row r="62" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="123"/>
+      <c r="B62" s="124"/>
       <c r="C62" s="6" t="s">
         <v>33</v>
       </c>
@@ -16809,7 +16807,7 @@
       <c r="G62" s="39"/>
     </row>
     <row r="63" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="123"/>
+      <c r="B63" s="124"/>
       <c r="C63" s="6" t="s">
         <v>34</v>
       </c>
@@ -16823,7 +16821,7 @@
       <c r="G63" s="39"/>
     </row>
     <row r="64" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="123"/>
+      <c r="B64" s="124"/>
       <c r="C64" s="6" t="s">
         <v>35</v>
       </c>
@@ -16837,7 +16835,7 @@
       <c r="G64" s="39"/>
     </row>
     <row r="65" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="123"/>
+      <c r="B65" s="124"/>
       <c r="C65" s="6" t="s">
         <v>36</v>
       </c>
@@ -16851,7 +16849,7 @@
       <c r="G65" s="39"/>
     </row>
     <row r="66" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="126"/>
+      <c r="B66" s="127"/>
       <c r="C66" s="23" t="s">
         <v>94</v>
       </c>
@@ -16888,7 +16886,7 @@
       <c r="N67" s="101"/>
     </row>
     <row r="68" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="127" t="s">
+      <c r="B68" s="128" t="s">
         <v>39</v>
       </c>
       <c r="C68" s="25" t="s">
@@ -16904,7 +16902,7 @@
       <c r="G68" s="70"/>
     </row>
     <row r="69" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="123"/>
+      <c r="B69" s="124"/>
       <c r="C69" s="6" t="s">
         <v>41</v>
       </c>
@@ -16918,7 +16916,7 @@
       <c r="G69" s="39"/>
     </row>
     <row r="70" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="123"/>
+      <c r="B70" s="124"/>
       <c r="C70" s="6" t="s">
         <v>42</v>
       </c>
@@ -16932,7 +16930,7 @@
       <c r="G70" s="39"/>
     </row>
     <row r="71" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="123"/>
+      <c r="B71" s="124"/>
       <c r="C71" s="6" t="s">
         <v>43</v>
       </c>
@@ -16946,7 +16944,7 @@
       <c r="G71" s="39"/>
     </row>
     <row r="72" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="123"/>
+      <c r="B72" s="124"/>
       <c r="C72" s="6" t="s">
         <v>44</v>
       </c>
@@ -16960,7 +16958,7 @@
       <c r="G72" s="39"/>
     </row>
     <row r="73" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="123"/>
+      <c r="B73" s="124"/>
       <c r="C73" s="6" t="s">
         <v>45</v>
       </c>
@@ -16974,7 +16972,7 @@
       <c r="G73" s="39"/>
     </row>
     <row r="74" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="123"/>
+      <c r="B74" s="124"/>
       <c r="C74" s="6" t="s">
         <v>46</v>
       </c>
@@ -16988,7 +16986,7 @@
       <c r="G74" s="39"/>
     </row>
     <row r="75" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="123"/>
+      <c r="B75" s="124"/>
       <c r="C75" s="6" t="s">
         <v>47</v>
       </c>
@@ -17002,7 +17000,7 @@
       <c r="G75" s="39"/>
     </row>
     <row r="76" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="123"/>
+      <c r="B76" s="124"/>
       <c r="C76" s="6" t="s">
         <v>48</v>
       </c>
@@ -17016,7 +17014,7 @@
       <c r="G76" s="39"/>
     </row>
     <row r="77" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="123"/>
+      <c r="B77" s="124"/>
       <c r="C77" s="6" t="s">
         <v>49</v>
       </c>
@@ -17030,7 +17028,7 @@
       <c r="G77" s="39"/>
     </row>
     <row r="78" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="123"/>
+      <c r="B78" s="124"/>
       <c r="C78" s="6" t="s">
         <v>50</v>
       </c>
@@ -17044,7 +17042,7 @@
       <c r="G78" s="39"/>
     </row>
     <row r="79" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="123"/>
+      <c r="B79" s="124"/>
       <c r="C79" s="6" t="s">
         <v>96</v>
       </c>
@@ -17058,7 +17056,7 @@
       <c r="G79" s="39"/>
     </row>
     <row r="80" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="123"/>
+      <c r="B80" s="124"/>
       <c r="C80" s="6" t="s">
         <v>51</v>
       </c>
@@ -17072,7 +17070,7 @@
       <c r="G80" s="39"/>
     </row>
     <row r="81" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="126"/>
+      <c r="B81" s="127"/>
       <c r="C81" s="23" t="s">
         <v>94</v>
       </c>
@@ -17087,7 +17085,7 @@
       <c r="N81" s="101"/>
     </row>
     <row r="82" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="127" t="s">
+      <c r="B82" s="128" t="s">
         <v>97</v>
       </c>
       <c r="C82" s="25" t="s">
@@ -17104,7 +17102,7 @@
       <c r="L82" s="101"/>
     </row>
     <row r="83" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="123"/>
+      <c r="B83" s="124"/>
       <c r="C83" s="6" t="s">
         <v>98</v>
       </c>
@@ -17119,7 +17117,7 @@
       <c r="L83" s="101"/>
     </row>
     <row r="84" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="124"/>
+      <c r="B84" s="125"/>
       <c r="C84" s="6" t="s">
         <v>52</v>
       </c>
@@ -17166,7 +17164,7 @@
       <c r="N86" s="101"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B87" s="127" t="s">
+      <c r="B87" s="128" t="s">
         <v>101</v>
       </c>
       <c r="C87" s="58" t="s">
@@ -17182,7 +17180,7 @@
       <c r="G87" s="70"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B88" s="123"/>
+      <c r="B88" s="124"/>
       <c r="C88" s="57" t="s">
         <v>543</v>
       </c>
@@ -17197,7 +17195,7 @@
       <c r="L88" s="101"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B89" s="124"/>
+      <c r="B89" s="125"/>
       <c r="C89" s="57" t="s">
         <v>545</v>
       </c>
